--- a/CountComparison/CountComparisonCocci.xlsx
+++ b/CountComparison/CountComparisonCocci.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8016A-98A4-47B4-A175-78591C62F89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2362E98-8DFF-4C33-870E-BE5FBBB72D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1E7E2C08-DB49-44A1-9C19-396E5F9E32A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{1E7E2C08-DB49-44A1-9C19-396E5F9E32A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,78 +34,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="45">
   <si>
     <t>Coccidia - TEST SET</t>
   </si>
   <si>
-    <t>20200603095639_PSN0007_20200603_cocivav_ks_db_L07S01.bmp</t>
-  </si>
-  <si>
-    <t>20200603095639_PSN0007_20200603_cocivav_ks_db_L08S01.bmp</t>
-  </si>
-  <si>
-    <t>20200603095639_PSN0007_20200603_cocivav_ks_db_L09S01.bmp</t>
-  </si>
-  <si>
-    <t>20200625120536_PSN0022_20200625_P17_P20_PSN22_DB_L01S01.bmp</t>
-  </si>
-  <si>
-    <t>20200625125710_PSN0007_20200625_P17_P20_PSN7_30c_DB_L05S01.bmp</t>
-  </si>
-  <si>
-    <t>20200625135015_PSN0007_20200625_P21_P24_PSN7_DB_L11S01.bmp</t>
-  </si>
-  <si>
-    <t>20200625135015_PSN0007_20200625_P21_P24_PSN7_DB_L12S01.bmp</t>
-  </si>
-  <si>
-    <t>20200625144135_PSN0007_20200625_P21_P24_PSN7_30C_DB_L08S01.bmp</t>
-  </si>
-  <si>
-    <t>20200630161544_PSN0007_2020Jun30_CV_run2_30C_L09S01.bmp</t>
-  </si>
-  <si>
-    <t>Count - v2.10.9.1</t>
-  </si>
-  <si>
-    <t>Count - New</t>
-  </si>
-  <si>
     <t>Difference</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>5725</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>974</t>
+    <t>Count - Actual</t>
+  </si>
+  <si>
+    <t>20200820101434_PSN0024_EIM-3320-B0039_L07S01</t>
+  </si>
+  <si>
+    <t>20201120125644_PSN0024_EIM-3420-B0377_L12S01</t>
+  </si>
+  <si>
+    <t>20201120140329_PSN0024_EIM-3420-B0300_L01S01</t>
+  </si>
+  <si>
+    <t>20201120140329_PSN0024_EIM-3420-B0300_L07S01</t>
+  </si>
+  <si>
+    <t>20210216162031_PSN0021_EIM-5320-B0430_L01S01</t>
+  </si>
+  <si>
+    <t>20210303100431_PSN0026_EIM-4820-B0056_L02S01</t>
+  </si>
+  <si>
+    <t>20210308123206_PSN0024_EIM-3420-B0295_L05S01</t>
+  </si>
+  <si>
+    <t>20210308123206_PSN0024_EIM-3420-B0295_L11S01</t>
+  </si>
+  <si>
+    <t>20210323151112_PSN0033_EIM-3420-B0162_L11S01</t>
+  </si>
+  <si>
+    <t>20210414181131_PSN0025_EIM-0421-B0013_L12S01</t>
+  </si>
+  <si>
+    <t>20210414185106_PSN0028_EIM-5120-B0111_L01S01</t>
+  </si>
+  <si>
+    <t>20210415125050_PSN0028_EIM-5120-B0139_L10S01</t>
+  </si>
+  <si>
+    <t>20210630171422_PSN0031_EIM-5220-B0039_L09S01</t>
+  </si>
+  <si>
+    <t>20210702140542_PSN0031_EIM-5320-B0005_L11S01</t>
+  </si>
+  <si>
+    <t>20210728172431_PSN0031_EIM-5320-B0043_L04S01</t>
+  </si>
+  <si>
+    <t>20210915162618_PSN0024_EIM-1021-B0085_L05S01</t>
+  </si>
+  <si>
+    <t>20210415135255_PSN0031_eim-5120-B0097_L07S01</t>
+  </si>
+  <si>
+    <t>20210602104253_PSN0033_EIM-5320-B0410_L03S01</t>
+  </si>
+  <si>
+    <t>20210623162417_PSN0027_EIM-5320-B0055_L10S01</t>
+  </si>
+  <si>
+    <t>20210716140111_PSN0024_EIM-5320-B0167_L06S01</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>3187</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>187</t>
+    <t>3579</t>
+  </si>
+  <si>
+    <t>Count - Expected</t>
+  </si>
+  <si>
+    <t>4876</t>
+  </si>
+  <si>
+    <t>4543</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -146,18 +216,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -174,54 +235,12 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -239,78 +258,139 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,164 +705,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF5122-2C0B-4D24-B2ED-0D839F0D82E3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="65.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>737</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>352</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1027</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B10" s="8">
+        <v>790</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>68</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B11" s="8">
+        <v>325</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5804</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B12" s="8">
+        <v>196</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>631</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B13" s="8">
+        <v>727</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>743</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B17" s="8">
+        <v>548</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
+      <c r="B18" s="8">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>992</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
+      <c r="B20" s="8">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>36</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>11</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>190</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
+      <c r="B21" s="9">
+        <v>3579</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
